--- a/balance.xlsx
+++ b/balance.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\преподаватель\Desktop\pyth\417\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_ECO\Eco\ProjectPythonRepa\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B19CC2-0786-4B65-8753-368CD50E030F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист2" sheetId="3" r:id="rId1"/>
@@ -108,8 +109,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <name val="Arial"/>
@@ -133,6 +134,17 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -217,33 +229,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 10" xfId="6"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
-    <cellStyle name="Обычный 3" xfId="2"/>
-    <cellStyle name="Обычный 5" xfId="3"/>
-    <cellStyle name="Обычный 6" xfId="4"/>
-    <cellStyle name="Обычный 9" xfId="5"/>
+    <cellStyle name="Обычный 10" xfId="6" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Обычный 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Обычный 5" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Обычный 6" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Обычный 9" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -334,6 +347,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -369,6 +399,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -544,11 +591,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -560,10 +607,15 @@
     <col min="5" max="5" width="15.1640625" customWidth="1"/>
     <col min="6" max="6" width="11.5" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="165" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:29" ht="150" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -605,7 +657,7 @@
       <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="2" t="s">
         <v>25</v>
       </c>
       <c r="P1" s="1" t="s">
@@ -647,278 +699,279 @@
       <c r="AB1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AC1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="4">
         <v>2010</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="5">
         <v>137101</v>
       </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
         <v>137101</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="5">
         <v>85022</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="5">
         <v>29107</v>
       </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
         <v>55915</v>
       </c>
-      <c r="J2" s="2">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2">
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
         <v>6325</v>
       </c>
-      <c r="L2" s="2">
-        <v>0</v>
-      </c>
-      <c r="M2" s="2">
+      <c r="L2" s="5">
+        <v>0</v>
+      </c>
+      <c r="M2" s="5">
         <v>10114</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="5">
         <v>101461</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="5">
         <v>238562</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="5">
         <v>100000</v>
       </c>
-      <c r="Q2" s="2">
-        <v>0</v>
-      </c>
-      <c r="R2" s="2">
+      <c r="Q2" s="5">
+        <v>0</v>
+      </c>
+      <c r="R2" s="5">
         <v>20414</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="5">
         <v>120414</v>
       </c>
-      <c r="T2" s="2">
-        <v>0</v>
-      </c>
-      <c r="U2" s="2">
+      <c r="T2" s="5">
+        <v>0</v>
+      </c>
+      <c r="U2" s="5">
         <v>3872</v>
       </c>
-      <c r="V2" s="2">
+      <c r="V2" s="5">
         <v>3872</v>
       </c>
-      <c r="W2" s="2">
+      <c r="W2" s="5">
         <v>87000</v>
       </c>
-      <c r="X2" s="2">
+      <c r="X2" s="5">
         <v>27276</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="Y2" s="5">
         <v>16407</v>
       </c>
-      <c r="Z2" s="2">
+      <c r="Z2" s="5">
         <v>4904</v>
       </c>
-      <c r="AA2" s="2">
+      <c r="AA2" s="5">
         <v>5965</v>
       </c>
-      <c r="AB2" s="2">
+      <c r="AB2" s="5">
         <v>114276</v>
       </c>
-      <c r="AC2" s="2">
+      <c r="AC2" s="5">
         <v>238562</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="4">
         <v>2011</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="6">
         <v>259228</v>
       </c>
-      <c r="C3" s="3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="C3" s="6">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
         <v>259228</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="6">
         <v>309331</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="6">
         <v>49088</v>
       </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3">
+      <c r="H3" s="6">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
         <v>260243</v>
       </c>
-      <c r="J3" s="3">
-        <v>0</v>
-      </c>
-      <c r="K3" s="3">
-        <v>0</v>
-      </c>
-      <c r="L3" s="3">
-        <v>0</v>
-      </c>
-      <c r="M3" s="3">
+      <c r="J3" s="6">
+        <v>0</v>
+      </c>
+      <c r="K3" s="6">
+        <v>0</v>
+      </c>
+      <c r="L3" s="6">
+        <v>0</v>
+      </c>
+      <c r="M3" s="6">
         <v>1614</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="6">
         <v>310945</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" s="7">
         <v>570173</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P3" s="6">
         <v>100000</v>
       </c>
-      <c r="Q3" s="3">
-        <v>0</v>
-      </c>
-      <c r="R3" s="3">
+      <c r="Q3" s="6">
+        <v>0</v>
+      </c>
+      <c r="R3" s="6">
         <v>171282</v>
       </c>
-      <c r="S3" s="3">
+      <c r="S3" s="6">
         <v>271282</v>
       </c>
-      <c r="T3" s="3">
-        <v>0</v>
-      </c>
-      <c r="U3" s="3">
+      <c r="T3" s="6">
+        <v>0</v>
+      </c>
+      <c r="U3" s="6">
         <v>17340</v>
       </c>
-      <c r="V3" s="3">
+      <c r="V3" s="6">
         <v>17340</v>
       </c>
-      <c r="W3" s="3">
+      <c r="W3" s="6">
         <v>157000</v>
       </c>
-      <c r="X3" s="3">
+      <c r="X3" s="6">
         <v>124551</v>
       </c>
-      <c r="Y3" s="3">
+      <c r="Y3" s="6">
         <v>67878</v>
       </c>
-      <c r="Z3" s="3">
+      <c r="Z3" s="6">
         <v>20286</v>
       </c>
-      <c r="AA3" s="3">
+      <c r="AA3" s="6">
         <v>36387</v>
       </c>
-      <c r="AB3" s="3">
+      <c r="AB3" s="6">
         <v>281551</v>
       </c>
-      <c r="AC3" s="5">
+      <c r="AC3" s="7">
         <v>570173</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="4">
         <v>2012</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="6">
         <v>171694</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="6">
         <v>73965</v>
       </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
         <v>245659</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="6">
         <v>187098</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="6">
         <v>51700</v>
       </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3">
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
         <v>135398</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="6">
         <v>13314</v>
       </c>
-      <c r="K4" s="3">
-        <v>0</v>
-      </c>
-      <c r="L4" s="3">
-        <v>0</v>
-      </c>
-      <c r="M4" s="3">
+      <c r="K4" s="6">
+        <v>0</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0</v>
+      </c>
+      <c r="M4" s="6">
         <v>175187</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="6">
         <v>375599</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="7">
         <v>621258</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="6">
         <v>100000</v>
       </c>
-      <c r="Q4" s="3">
-        <v>0</v>
-      </c>
-      <c r="R4" s="3">
+      <c r="Q4" s="6">
+        <v>0</v>
+      </c>
+      <c r="R4" s="6">
         <v>233378</v>
       </c>
-      <c r="S4" s="3">
+      <c r="S4" s="6">
         <v>333378</v>
       </c>
-      <c r="T4" s="3">
-        <v>0</v>
-      </c>
-      <c r="U4" s="3">
+      <c r="T4" s="6">
+        <v>0</v>
+      </c>
+      <c r="U4" s="6">
         <v>6187</v>
       </c>
-      <c r="V4" s="3">
+      <c r="V4" s="6">
         <v>6187</v>
       </c>
-      <c r="W4" s="3">
+      <c r="W4" s="6">
         <v>194282</v>
       </c>
-      <c r="X4" s="3">
+      <c r="X4" s="6">
         <v>87411</v>
       </c>
-      <c r="Y4" s="3">
+      <c r="Y4" s="6">
         <v>41018</v>
       </c>
-      <c r="Z4" s="3">
+      <c r="Z4" s="6">
         <v>12258</v>
       </c>
-      <c r="AA4" s="3">
+      <c r="AA4" s="6">
         <v>34135</v>
       </c>
-      <c r="AB4" s="3">
+      <c r="AB4" s="6">
         <v>281693</v>
       </c>
-      <c r="AC4" s="5">
+      <c r="AC4" s="7">
         <v>621258</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/balance.xlsx
+++ b/balance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_ECO\Eco\ProjectPythonRepa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B19CC2-0786-4B65-8753-368CD50E030F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9415934F-00A0-428A-A092-4D88BE56FF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -594,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -607,10 +607,13 @@
     <col min="5" max="5" width="15.1640625" customWidth="1"/>
     <col min="6" max="6" width="11.5" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
     <col min="13" max="16" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="23" max="24" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="10" bestFit="1" customWidth="1"/>
     <col min="28" max="29" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
